--- a/test/outputs/template.xlsx
+++ b/test/outputs/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroaki/StudioProjects/chord/test/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF3E16-4A2E-6A42-8590-60EEA6B3BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E189D-1158-BA42-B211-8FEB66B32DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6532,46 +6532,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP"/>
-              <a:t>マッチング</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP"/>
-              <a:t>スパース</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP"/>
-              <a:t>自然対数</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -6982,39 +6943,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>探索木</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>自然対数</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -7425,31 +7354,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>探索木</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -7860,30 +7765,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>探索木</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -8294,38 +8176,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>マッチング</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -8736,38 +8587,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>マッチング</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>自然対数</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -9178,31 +8998,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>マッチング</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -9613,39 +9409,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>マッチング</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>自然対数</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -10056,31 +9820,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>マッチング</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -10491,39 +10231,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>探索木</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -10934,47 +10642,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>探索木</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スパース</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>自然対数</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -11385,39 +11053,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>探索木</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>コムフィルタ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>自然対数</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -12550,8 +12186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:DW805"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="BR3" zoomScale="39" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="DN70" sqref="DN70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
